--- a/edit attendance status.xlsx
+++ b/edit attendance status.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elcot\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="78">
   <si>
     <t xml:space="preserve">                                  TASK COMPLETED</t>
   </si>
@@ -238,12 +243,27 @@
   </si>
   <si>
     <t xml:space="preserve">Creating Data grid </t>
+  </si>
+  <si>
+    <t>Front End Design</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Dropdown onloading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dropdown onloading </t>
+  </si>
+  <si>
+    <t>Client screen connection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -557,7 +577,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -565,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,6 +1292,9 @@
       <c r="C50" t="s">
         <v>35</v>
       </c>
+      <c r="D50" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -1283,6 +1306,9 @@
       <c r="C51" t="s">
         <v>41</v>
       </c>
+      <c r="D51" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -1293,6 +1319,275 @@
       </c>
       <c r="C52" t="s">
         <v>40</v>
+      </c>
+      <c r="D52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>43133</v>
+      </c>
+      <c r="C53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>43134</v>
+      </c>
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>43135</v>
+      </c>
+      <c r="C55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>43136</v>
+      </c>
+      <c r="C56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <v>43137</v>
+      </c>
+      <c r="C57" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>43138</v>
+      </c>
+      <c r="C58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>43139</v>
+      </c>
+      <c r="C59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>43140</v>
+      </c>
+      <c r="C60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>43141</v>
+      </c>
+      <c r="C61" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1">
+        <v>43142</v>
+      </c>
+      <c r="C62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1">
+        <v>43143</v>
+      </c>
+      <c r="C63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1">
+        <v>43144</v>
+      </c>
+      <c r="C64" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1">
+        <v>43145</v>
+      </c>
+      <c r="C65" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1">
+        <v>43146</v>
+      </c>
+      <c r="C66" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1">
+        <v>43147</v>
+      </c>
+      <c r="C67" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1">
+        <v>43148</v>
+      </c>
+      <c r="C68" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1">
+        <v>43149</v>
+      </c>
+      <c r="C69" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1">
+        <v>43150</v>
+      </c>
+      <c r="C70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1">
+        <v>43151</v>
+      </c>
+      <c r="C71" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
